--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_ward4714_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_ward4714_resonant.xlsx
@@ -1124,19 +1124,19 @@
         <v>288.6751509631174</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -1151,7 +1151,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.693395120032067E-11</v>
+        <v>-8.692259779608042E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1201,22 +1201,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464772</v>
+        <v>0.9526279474464777</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172764</v>
+        <v>0.9526279821172763</v>
       </c>
       <c r="Q3">
-        <v>8.709505441346354E-08</v>
+        <v>8.709504071360631E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999128962</v>
+        <v>179.9999999128961</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860248</v>
       </c>
       <c r="Q4">
-        <v>5.191990874370883E-07</v>
+        <v>5.191990217463514E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1319,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027253</v>
+        <v>0.9526279361027258</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610253</v>
+        <v>0.9526279934610251</v>
       </c>
       <c r="Q5">
-        <v>4.282297024653554E-07</v>
+        <v>4.282297320079442E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995717615</v>
+        <v>179.9999995717614</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652249</v>
+        <v>0.9526279315652253</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985249</v>
+        <v>0.9526279979985247</v>
       </c>
       <c r="Q6">
-        <v>5.646835709409051E-07</v>
+        <v>5.646836126139079E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994353076</v>
+        <v>179.9999994353075</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783974</v>
+        <v>0.9526279277839748</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797747</v>
+        <v>0.952628001779774</v>
       </c>
       <c r="Q7">
-        <v>6.78395101623223E-07</v>
+        <v>6.783951696802872E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277241</v>
+        <v>0.9526279270277246</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360245</v>
+        <v>0.9526280025360244</v>
       </c>
       <c r="Q8">
-        <v>7.011374052225951E-07</v>
+        <v>7.011374780838989E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,22 +1555,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152237</v>
+        <v>0.9526279255152242</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485245</v>
+        <v>0.9526280040485241</v>
       </c>
       <c r="Q9">
-        <v>7.466220324092873E-07</v>
+        <v>7.466220965964868E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992533691</v>
+        <v>179.999999253369</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027234</v>
+        <v>0.9526279240027241</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610246</v>
+        <v>0.9526280055610241</v>
       </c>
       <c r="Q10">
-        <v>7.921066425400759E-07</v>
+        <v>7.921067067183824E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992078845</v>
+        <v>179.9999992078844</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1673,16 +1673,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464732</v>
+        <v>0.9526279232464739</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172746</v>
+        <v>0.9526280063172744</v>
       </c>
       <c r="Q11">
-        <v>8.148489508973638E-07</v>
+        <v>8.148490150725314E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1732,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279451777269</v>
+        <v>0.9526279451777271</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860267</v>
+        <v>0.9526279843860264</v>
       </c>
       <c r="Q12">
-        <v>1.553219954551154E-07</v>
+        <v>1.553219550834567E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777268</v>
+        <v>0.9526279451777271</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860264</v>
       </c>
       <c r="Q13">
-        <v>1.553219745423646E-07</v>
+        <v>1.55321956975258E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279429089768</v>
+        <v>0.952627942908977</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547759</v>
+        <v>0.9526279866547757</v>
       </c>
       <c r="Q14">
-        <v>2.235489528143363E-07</v>
+        <v>2.235489330959982E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999997764423</v>
+        <v>179.9999997764422</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964761</v>
+        <v>0.9526279413964766</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672758</v>
+        <v>0.9526279881672756</v>
       </c>
       <c r="Q15">
-        <v>2.690335289553379E-07</v>
+        <v>2.690335340069384E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997309577</v>
+        <v>179.9999997309576</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279459339769</v>
+        <v>0.9526279459339773</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297766</v>
+        <v>0.9526279836297763</v>
       </c>
       <c r="Q16">
-        <v>1.325796842897501E-07</v>
+        <v>1.325796477764479E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339769</v>
+        <v>0.9526279459339773</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297766</v>
+        <v>0.9526279836297763</v>
       </c>
       <c r="Q17">
-        <v>1.325796672322171E-07</v>
+        <v>1.325796496682493E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277264</v>
+        <v>0.9526279391277265</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0.9526279904360254</v>
       </c>
       <c r="Q18">
-        <v>3.372605478045607E-07</v>
+        <v>3.372605101721155E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996627307</v>
+        <v>179.9999996627306</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027263</v>
+        <v>0.9526279361027262</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610253</v>
+        <v>0.9526279934610249</v>
       </c>
       <c r="Q19">
-        <v>4.282298304500687E-07</v>
+        <v>4.282297704098515E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339764</v>
+        <v>0.9526279338339761</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297753</v>
+        <v>0.9526279957297747</v>
       </c>
       <c r="Q20">
-        <v>4.964567813197532E-07</v>
+        <v>4.964567201428819E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2269,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860248</v>
       </c>
       <c r="Q21">
-        <v>5.191990874370883E-07</v>
+        <v>5.191990301122958E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2385,13 +2385,13 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>1.102503199997684</v>
@@ -2456,7 +2456,7 @@
         <v>1.102503199494734</v>
       </c>
       <c r="O3">
-        <v>1.0739362379828</v>
+        <v>1.073936237982801</v>
       </c>
       <c r="P3">
         <v>1.084507397579257</v>
@@ -2574,7 +2574,7 @@
         <v>1.102503199127358</v>
       </c>
       <c r="O5">
-        <v>1.073936237813092</v>
+        <v>1.073936237813093</v>
       </c>
       <c r="P5">
         <v>1.084507397868702</v>
@@ -2757,10 +2757,10 @@
         <v>1.084507398100258</v>
       </c>
       <c r="Q8">
-        <v>29.14059842603803</v>
+        <v>29.14059842603804</v>
       </c>
       <c r="R8">
-        <v>-91.10214734879825</v>
+        <v>-91.10214734879824</v>
       </c>
       <c r="S8">
         <v>150.3279626386016</v>
@@ -2816,7 +2816,7 @@
         <v>1.08450739813885</v>
       </c>
       <c r="Q9">
-        <v>29.14059842684155</v>
+        <v>29.14059842684156</v>
       </c>
       <c r="R9">
         <v>-91.102147343452</v>
@@ -2875,7 +2875,7 @@
         <v>1.084507398177443</v>
       </c>
       <c r="Q10">
-        <v>29.14059842764508</v>
+        <v>29.14059842764509</v>
       </c>
       <c r="R10">
         <v>-91.10214733810575</v>
@@ -2928,7 +2928,7 @@
         <v>1.102503198710999</v>
       </c>
       <c r="O11">
-        <v>1.073936237620756</v>
+        <v>1.073936237620757</v>
       </c>
       <c r="P11">
         <v>1.084507398196739</v>
@@ -3170,7 +3170,7 @@
         <v>1.084507397733627</v>
       </c>
       <c r="Q15">
-        <v>29.14059841840453</v>
+        <v>29.14059841840454</v>
       </c>
       <c r="R15">
         <v>-91.10214739958759</v>
@@ -3628,19 +3628,19 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -3832,7 +3832,7 @@
         <v>1.084507397879575</v>
       </c>
       <c r="Q5">
-        <v>29.14059842112402</v>
+        <v>29.14059842112403</v>
       </c>
       <c r="R5">
         <v>-91.10214737876404</v>
@@ -4062,13 +4062,13 @@
         <v>1.102503198760524</v>
       </c>
       <c r="O9">
-        <v>1.073936237627485</v>
+        <v>1.073936237627486</v>
       </c>
       <c r="P9">
         <v>1.084507398149724</v>
       </c>
       <c r="Q9">
-        <v>29.1405984267487</v>
+        <v>29.14059842674871</v>
       </c>
       <c r="R9">
         <v>-91.10214734134031</v>
@@ -4422,7 +4422,7 @@
         <v>1.084507397744501</v>
       </c>
       <c r="Q15">
-        <v>29.14059841831168</v>
+        <v>29.14059841831169</v>
       </c>
       <c r="R15">
         <v>-91.1021473974759</v>
@@ -4481,7 +4481,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q16">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R16">
         <v>-91.10214741351464</v>
@@ -4880,19 +4880,19 @@
         <v>230.9401157709824</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.01243796466366947</v>
       </c>
       <c r="K2">
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -4907,7 +4907,7 @@
         <v>0.8660254037849896</v>
       </c>
       <c r="Q2">
-        <v>1.720172204747969E-10</v>
+        <v>1.720129916427033E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4957,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.866025388164028</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054648</v>
       </c>
       <c r="Q3">
-        <v>8.659296223926042E-08</v>
+        <v>8.659298144534691E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,22 +5016,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015302</v>
+        <v>0.8660253751015308</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679613</v>
       </c>
       <c r="Q4">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328363841477E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837586</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5075,22 +5075,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515296</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.866025429717962</v>
       </c>
       <c r="Q5">
-        <v>7.415718441938306E-07</v>
+        <v>7.415718484306778E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265307</v>
+        <v>0.8660253737265303</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -5143,13 +5143,13 @@
         <v>0.8660254338429606</v>
       </c>
       <c r="Q6">
-        <v>1.003563390030877E-06</v>
+        <v>1.003563393121881E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964283</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890319</v>
+        <v>0.8660253702890311</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -5202,13 +5202,13 @@
         <v>0.8660254372804596</v>
       </c>
       <c r="Q7">
-        <v>1.221889674684557E-06</v>
+        <v>1.221889682871488E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015319</v>
+        <v>0.8660253696015311</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -5261,13 +5261,13 @@
         <v>0.8660254379679593</v>
       </c>
       <c r="Q8">
-        <v>1.265554944833726E-06</v>
+        <v>1.265554936272583E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344368</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5311,16 +5311,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265321</v>
+        <v>0.8660253682265313</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429591</v>
+        <v>0.8660254393429593</v>
       </c>
       <c r="Q9">
-        <v>1.352885452148768E-06</v>
+        <v>1.352885460316128E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515324</v>
+        <v>0.8660253668515316</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>0.8660254407179589</v>
       </c>
       <c r="Q10">
-        <v>1.440215971631803E-06</v>
+        <v>1.440215979787366E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597758</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5429,22 +5429,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640326</v>
+        <v>0.8660253661640318</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054588</v>
+        <v>0.8660254414054589</v>
       </c>
       <c r="Q11">
-        <v>1.483881228101202E-06</v>
+        <v>1.483881232012001E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161106</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5488,22 +5488,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679644</v>
       </c>
       <c r="Q12">
-        <v>2.175887383307079E-07</v>
+        <v>2.175887644074527E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824027</v>
+        <v>179.9999997824026</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5547,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679642</v>
+        <v>0.8660254214679646</v>
       </c>
       <c r="Q13">
-        <v>2.175887366606355E-07</v>
+        <v>2.175887558508993E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5606,16 +5606,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390285</v>
+        <v>0.8660253840390286</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304637</v>
       </c>
       <c r="Q14">
-        <v>3.485844804580637E-07</v>
+        <v>3.485845123959344E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -5665,22 +5665,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.866025382664029</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054633</v>
       </c>
       <c r="Q15">
-        <v>4.359150280127745E-07</v>
+        <v>4.359150425783848E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640765</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804643</v>
+        <v>0.8660254207804645</v>
       </c>
       <c r="Q16">
-        <v>1.739234838718169E-07</v>
+        <v>1.73923505711847E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5789,10 +5789,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q17">
-        <v>1.73923477961005E-07</v>
+        <v>1.739234971552937E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015296</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679628</v>
       </c>
       <c r="Q18">
-        <v>5.66910735051156E-07</v>
+        <v>5.669107990068291E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330807</v>
+        <v>179.9999994330806</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -5901,22 +5901,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179623</v>
+        <v>0.866025429717962</v>
       </c>
       <c r="Q19">
-        <v>7.415717421920364E-07</v>
+        <v>7.415718290605333E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5960,22 +5960,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890305</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804612</v>
       </c>
       <c r="Q20">
-        <v>8.725674909668817E-07</v>
+        <v>8.725675840947316E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.999999127424</v>
+        <v>179.9999991274238</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -6019,22 +6019,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015302</v>
+        <v>0.8660253751015308</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679613</v>
       </c>
       <c r="Q21">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328355048798E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837586</v>
       </c>
     </row>
   </sheetData>
@@ -6132,19 +6132,19 @@
         <v>230.9401157709824</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.01243796466366947</v>
       </c>
       <c r="K2">
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -6159,7 +6159,7 @@
         <v>0.8660254037849896</v>
       </c>
       <c r="Q2">
-        <v>1.720172204747969E-10</v>
+        <v>1.720129916427033E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.866025388164028</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054648</v>
       </c>
       <c r="Q3">
-        <v>8.659296223926042E-08</v>
+        <v>8.659298144534691E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,22 +6268,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015302</v>
+        <v>0.8660253751015308</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679613</v>
       </c>
       <c r="Q4">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328363841477E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837586</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6327,22 +6327,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515296</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.866025429717962</v>
       </c>
       <c r="Q5">
-        <v>7.415718441938306E-07</v>
+        <v>7.415718484306778E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265307</v>
+        <v>0.8660253737265303</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -6395,13 +6395,13 @@
         <v>0.8660254338429606</v>
       </c>
       <c r="Q6">
-        <v>1.003563390030877E-06</v>
+        <v>1.003563393121881E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964283</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890319</v>
+        <v>0.8660253702890311</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -6454,13 +6454,13 @@
         <v>0.8660254372804596</v>
       </c>
       <c r="Q7">
-        <v>1.221889674684557E-06</v>
+        <v>1.221889682871488E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015319</v>
+        <v>0.8660253696015311</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -6513,13 +6513,13 @@
         <v>0.8660254379679593</v>
       </c>
       <c r="Q8">
-        <v>1.265554944833726E-06</v>
+        <v>1.265554936272583E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344368</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6563,16 +6563,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265321</v>
+        <v>0.8660253682265313</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429591</v>
+        <v>0.8660254393429593</v>
       </c>
       <c r="Q9">
-        <v>1.352885452148768E-06</v>
+        <v>1.352885460316128E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515324</v>
+        <v>0.8660253668515316</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -6631,13 +6631,13 @@
         <v>0.8660254407179589</v>
       </c>
       <c r="Q10">
-        <v>1.440215971631803E-06</v>
+        <v>1.440215979787366E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597758</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6681,22 +6681,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640326</v>
+        <v>0.8660253661640318</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054588</v>
+        <v>0.8660254414054589</v>
       </c>
       <c r="Q11">
-        <v>1.483881228101202E-06</v>
+        <v>1.483881232012001E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161106</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6740,22 +6740,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679644</v>
       </c>
       <c r="Q12">
-        <v>2.175887383307079E-07</v>
+        <v>2.175887644074527E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824027</v>
+        <v>179.9999997824026</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6799,16 +6799,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015281</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679642</v>
+        <v>0.8660254214679646</v>
       </c>
       <c r="Q13">
-        <v>2.175887366606355E-07</v>
+        <v>2.175887558508993E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6858,16 +6858,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390285</v>
+        <v>0.8660253840390286</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304637</v>
       </c>
       <c r="Q14">
-        <v>3.485844804580637E-07</v>
+        <v>3.485845123959344E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6917,22 +6917,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.866025382664029</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054633</v>
       </c>
       <c r="Q15">
-        <v>4.359150280127745E-07</v>
+        <v>4.359150425783848E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640765</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804643</v>
+        <v>0.8660254207804645</v>
       </c>
       <c r="Q16">
-        <v>1.739234838718169E-07</v>
+        <v>1.73923505711847E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7041,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q17">
-        <v>1.73923477961005E-07</v>
+        <v>1.739234971552937E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,22 +7094,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015296</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679628</v>
       </c>
       <c r="Q18">
-        <v>5.66910735051156E-07</v>
+        <v>5.669107990068291E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330807</v>
+        <v>179.9999994330806</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -7153,22 +7153,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179623</v>
+        <v>0.866025429717962</v>
       </c>
       <c r="Q19">
-        <v>7.415717421920364E-07</v>
+        <v>7.415718290605333E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584196</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7212,22 +7212,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890305</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804612</v>
       </c>
       <c r="Q20">
-        <v>8.725674909668817E-07</v>
+        <v>8.725675840947316E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.999999127424</v>
+        <v>179.9999991274238</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -7271,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015302</v>
+        <v>0.8660253751015308</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679615</v>
+        <v>0.8660254324679613</v>
       </c>
       <c r="Q21">
-        <v>9.162327423810544E-07</v>
+        <v>9.162328355048798E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837586</v>
       </c>
     </row>
   </sheetData>
@@ -7384,19 +7384,19 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.01243796466366947</v>
       </c>
       <c r="K2">
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -7461,13 +7461,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081652</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -7526,13 +7526,13 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R4">
-        <v>-91.2483935866167</v>
+        <v>-91.24839358661669</v>
       </c>
       <c r="S4">
         <v>150.3745453009498</v>
@@ -7585,7 +7585,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
         <v>29.02648253197877</v>
@@ -7703,10 +7703,10 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879737</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
         <v>-91.24839355967381</v>
@@ -7818,10 +7818,10 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
-        <v>0.9840663106779516</v>
+        <v>0.9840663106779517</v>
       </c>
       <c r="Q9">
         <v>29.02648254695741</v>
@@ -7936,7 +7936,7 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
         <v>0.9840663107679295</v>
@@ -8113,13 +8113,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.973134257201376</v>
       </c>
       <c r="P14">
         <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -8175,7 +8175,7 @@
         <v>0.9731342572117611</v>
       </c>
       <c r="P15">
-        <v>0.9840663100481062</v>
+        <v>0.9840663100481061</v>
       </c>
       <c r="Q15">
         <v>29.02648252448946</v>
@@ -8231,13 +8231,13 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
         <v>-91.24839365204943</v>
@@ -8290,16 +8290,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
-        <v>0.9840663098681504</v>
+        <v>0.9840663098681505</v>
       </c>
       <c r="Q17">
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -8411,10 +8411,10 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R19">
         <v>-91.24839360201264</v>
@@ -8467,7 +8467,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636864</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -8529,13 +8529,13 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R21">
-        <v>-91.2483935866167</v>
+        <v>-91.24839358661669</v>
       </c>
       <c r="S21">
         <v>150.3745453009498</v>
@@ -8636,19 +8636,19 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.01243796466366947</v>
       </c>
       <c r="K2">
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -8713,13 +8713,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081652</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -8778,13 +8778,13 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R4">
-        <v>-91.2483935866167</v>
+        <v>-91.24839358661669</v>
       </c>
       <c r="S4">
         <v>150.3745453009498</v>
@@ -8837,7 +8837,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
         <v>29.02648253197877</v>
@@ -8955,10 +8955,10 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879737</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
         <v>-91.24839355967381</v>
@@ -9070,10 +9070,10 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
-        <v>0.9840663106779516</v>
+        <v>0.9840663106779517</v>
       </c>
       <c r="Q9">
         <v>29.02648254695741</v>
@@ -9188,7 +9188,7 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
         <v>0.9840663107679295</v>
@@ -9365,13 +9365,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013758</v>
+        <v>0.973134257201376</v>
       </c>
       <c r="P14">
         <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234964</v>
+        <v>29.02648252234965</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -9427,7 +9427,7 @@
         <v>0.9731342572117611</v>
       </c>
       <c r="P15">
-        <v>0.9840663100481062</v>
+        <v>0.9840663100481061</v>
       </c>
       <c r="Q15">
         <v>29.02648252448946</v>
@@ -9483,13 +9483,13 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
         <v>-91.24839365204943</v>
@@ -9542,16 +9542,16 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
-        <v>0.9840663098681504</v>
+        <v>0.9840663098681505</v>
       </c>
       <c r="Q17">
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -9663,10 +9663,10 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R19">
         <v>-91.24839360201264</v>
@@ -9719,7 +9719,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636864</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -9781,13 +9781,13 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625838</v>
+        <v>29.02648253625839</v>
       </c>
       <c r="R21">
-        <v>-91.2483935866167</v>
+        <v>-91.24839358661669</v>
       </c>
       <c r="S21">
         <v>150.3745453009498</v>
@@ -9909,7 +9909,7 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664723</v>
+        <v>0.6350853099664721</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
@@ -9918,7 +9918,7 @@
         <v>0.635085309858575</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061767</v>
+        <v>60.00000000061768</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -9971,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853273112945</v>
+        <v>0.6350853273112939</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114504</v>
+        <v>0.63508529411145</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762055</v>
+        <v>60.0000007376206</v>
       </c>
       <c r="R3">
         <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>120.0000009916561</v>
+        <v>120.000000991656</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -10033,19 +10033,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279452</v>
+        <v>0.6350853458279443</v>
       </c>
       <c r="O4">
         <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>0.635085283890604</v>
+        <v>0.6350852838906029</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789035</v>
+        <v>60.00000083789056</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S4">
         <v>120.0000023882382</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.635085341929702</v>
+        <v>0.6350853419297011</v>
       </c>
       <c r="O5">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P5">
-        <v>0.6350852860423606</v>
+        <v>0.6350852860423596</v>
       </c>
       <c r="Q5">
-        <v>60.00000081678123</v>
+        <v>60.00000081678127</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S5">
-        <v>120.0000020942209</v>
+        <v>120.0000020942208</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.635085347777065</v>
+        <v>0.6350853477770639</v>
       </c>
       <c r="O6">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147243</v>
+        <v>0.6350852828147233</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844554</v>
+        <v>60.00000084844557</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S6">
-        <v>120.0000025352468</v>
+        <v>120.0000025352467</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,22 +10219,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853526498674</v>
+        <v>0.6350853526498664</v>
       </c>
       <c r="O7">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250274</v>
+        <v>0.6350852801250264</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483246</v>
+        <v>60.0000008748325</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S7">
-        <v>120.0000029027684</v>
+        <v>120.0000029027683</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10281,22 +10281,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244278</v>
+        <v>0.635085353624427</v>
       </c>
       <c r="O8">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P8">
-        <v>0.635085279587088</v>
+        <v>0.6350852795870867</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010988</v>
+        <v>60.00000088010989</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S8">
-        <v>120.0000029762727</v>
+        <v>120.0000029762726</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -10343,22 +10343,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735486</v>
+        <v>0.6350853555735477</v>
       </c>
       <c r="O9">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112094</v>
+        <v>0.6350852785112082</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066462</v>
+        <v>60.00000089066467</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S9">
-        <v>120.0000031232813</v>
+        <v>120.0000031232812</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226695</v>
+        <v>0.6350853575226686</v>
       </c>
       <c r="O10">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353306</v>
+        <v>0.6350852774353294</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121939</v>
+        <v>60.00000090121945</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S10">
-        <v>120.00000327029</v>
+        <v>120.0000032702898</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972299</v>
+        <v>0.635085358497229</v>
       </c>
       <c r="O11">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973911</v>
+        <v>0.6350852768973899</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649679</v>
+        <v>60.00000090649683</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S11">
-        <v>120.0000033437943</v>
+        <v>120.0000033437942</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,16 +10529,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349757</v>
+        <v>0.6350853302349752</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976316</v>
+        <v>0.6350852924976315</v>
       </c>
       <c r="Q12">
-        <v>60.00000075345277</v>
+        <v>60.00000075345279</v>
       </c>
       <c r="R12">
         <v>-89.99999999999572</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349757</v>
+        <v>0.6350853302349752</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976318</v>
+        <v>0.6350852924976315</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345276</v>
+        <v>60.0000007534528</v>
       </c>
       <c r="R13">
         <v>-89.99999999999571</v>
       </c>
       <c r="S13">
-        <v>120.000001212169</v>
+        <v>120.0000012121689</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586578</v>
+        <v>0.635085333158657</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838149</v>
+        <v>0.6350852908838144</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928468</v>
+        <v>60.00000076928477</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
-        <v>120.000001432682</v>
+        <v>120.0000014326819</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,16 +10715,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853351077785</v>
+        <v>0.6350853351077778</v>
       </c>
       <c r="O15">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P15">
-        <v>0.6350852898079359</v>
+        <v>0.6350852898079353</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983956</v>
+        <v>60.00000077983961</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
@@ -10777,16 +10777,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604153</v>
+        <v>0.6350853292604146</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852930355714</v>
+        <v>0.635085293035571</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817535</v>
+        <v>60.00000074817538</v>
       </c>
       <c r="R16">
         <v>-89.99999999999572</v>
@@ -10839,22 +10839,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604153</v>
+        <v>0.6350853292604146</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852930355715</v>
+        <v>0.6350852930355712</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817535</v>
+        <v>60.00000074817538</v>
       </c>
       <c r="R17">
         <v>-89.99999999999571</v>
       </c>
       <c r="S17">
-        <v>120.0000011386647</v>
+        <v>120.0000011386646</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314606</v>
+        <v>0.6350853380314597</v>
       </c>
       <c r="O18">
         <v>1.100000023884844</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941186</v>
+        <v>0.6350852881941181</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567145</v>
+        <v>60.00000079567158</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S18">
         <v>120.0000018002036</v>
@@ -10963,19 +10963,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297029</v>
+        <v>0.635085341929702</v>
       </c>
       <c r="O19">
         <v>1.100000023884844</v>
       </c>
       <c r="P19">
-        <v>0.6350852860423615</v>
+        <v>0.6350852860423608</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678089</v>
+        <v>60.00000081678105</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S19">
         <v>120.0000020942209</v>
@@ -11025,19 +11025,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533846</v>
+        <v>0.6350853448533835</v>
       </c>
       <c r="O20">
         <v>1.100000023884844</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285435</v>
+        <v>0.6350852844285427</v>
       </c>
       <c r="Q20">
-        <v>60.00000083261299</v>
+        <v>60.00000083261318</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S20">
         <v>120.0000023147339</v>
@@ -11087,19 +11087,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279452</v>
+        <v>0.6350853458279442</v>
       </c>
       <c r="O21">
         <v>1.100000023884844</v>
       </c>
       <c r="P21">
-        <v>0.635085283890604</v>
+        <v>0.6350852838906029</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789035</v>
+        <v>60.00000083789057</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S21">
         <v>120.0000023882382</v>
@@ -11286,22 +11286,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372389</v>
+        <v>0.6350853281372383</v>
       </c>
       <c r="O3">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615864</v>
+        <v>0.6350852933615854</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271604</v>
+        <v>60.00000077271612</v>
       </c>
       <c r="R3">
         <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>120.0000010386398</v>
+        <v>120.0000010386397</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538896</v>
+        <v>0.6350853466538875</v>
       </c>
       <c r="O4">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>0.63508528314074</v>
+        <v>0.6350852831407374</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298584</v>
+        <v>60.00000087298623</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S4">
-        <v>120.000002435222</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11410,22 +11410,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853427556465</v>
+        <v>0.6350853427556455</v>
       </c>
       <c r="O5">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.6350852852924965</v>
+        <v>0.635085285292495</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187672</v>
+        <v>60.00000085187681</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S5">
-        <v>120.0000021412046</v>
+        <v>120.0000021412045</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -11472,22 +11472,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853486030094</v>
+        <v>0.6350853486030082</v>
       </c>
       <c r="O6">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648603</v>
+        <v>0.6350852820648587</v>
       </c>
       <c r="Q6">
-        <v>60.00000088354103</v>
+        <v>60.00000088354111</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S6">
-        <v>120.0000025822306</v>
+        <v>120.0000025822304</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -11534,22 +11534,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758119</v>
+        <v>0.6350853534758109</v>
       </c>
       <c r="O7">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852793751633</v>
+        <v>0.6350852793751617</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992796</v>
+        <v>60.00000090992803</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S7">
-        <v>120.0000029497521</v>
+        <v>120.000002949752</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -11596,22 +11596,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853544503724</v>
+        <v>0.6350853544503713</v>
       </c>
       <c r="O8">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372239</v>
+        <v>0.6350852788372221</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520536</v>
+        <v>60.00000091520544</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S8">
-        <v>120.0000030232565</v>
+        <v>120.0000030232563</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -11658,22 +11658,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994932</v>
+        <v>0.6350853563994922</v>
       </c>
       <c r="O9">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613454</v>
+        <v>0.6350852777613437</v>
       </c>
       <c r="Q9">
-        <v>60.0000009257601</v>
+        <v>60.00000092576018</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S9">
-        <v>120.0000031702651</v>
+        <v>120.000003170265</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -11720,22 +11720,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.635085358348614</v>
+        <v>0.6350853583486129</v>
       </c>
       <c r="O10">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854665</v>
+        <v>0.6350852766854649</v>
       </c>
       <c r="Q10">
-        <v>60.00000093631488</v>
+        <v>60.00000093631498</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S10">
-        <v>120.0000033172737</v>
+        <v>120.0000033172736</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231744</v>
+        <v>0.6350853593231734</v>
       </c>
       <c r="O11">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475271</v>
+        <v>0.6350852761475253</v>
       </c>
       <c r="Q11">
-        <v>60.00000094159229</v>
+        <v>60.00000094159237</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999557</v>
+        <v>-89.99999999999559</v>
       </c>
       <c r="S11">
-        <v>120.000003390778</v>
+        <v>120.0000033907779</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,19 +11844,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853310609202</v>
+        <v>0.6350853310609196</v>
       </c>
       <c r="O12">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477676</v>
+        <v>0.6350852917477667</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854826</v>
+        <v>60.00000078854833</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S12">
         <v>120.0000012591527</v>
@@ -11906,16 +11906,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853310609204</v>
+        <v>0.6350853310609196</v>
       </c>
       <c r="O13">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477678</v>
+        <v>0.6350852917477667</v>
       </c>
       <c r="Q13">
-        <v>60.00000078854823</v>
+        <v>60.00000078854833</v>
       </c>
       <c r="R13">
         <v>-89.99999999999571</v>
@@ -11968,22 +11968,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846023</v>
+        <v>0.6350853339846013</v>
       </c>
       <c r="O14">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339511</v>
+        <v>0.6350852901339494</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438014</v>
+        <v>60.00000080438032</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
-        <v>120.0000014796658</v>
+        <v>120.0000014796657</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -12030,22 +12030,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.635085335933723</v>
+        <v>0.6350853359337221</v>
       </c>
       <c r="O15">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580719</v>
+        <v>0.6350852890580705</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493506</v>
+        <v>60.00000081493515</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
       </c>
       <c r="S15">
-        <v>120.0000016266744</v>
+        <v>120.0000016266743</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -12092,16 +12092,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853300863599</v>
+        <v>0.6350853300863591</v>
       </c>
       <c r="O16">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852922857073</v>
+        <v>0.6350852922857064</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327084</v>
+        <v>60.00000078327091</v>
       </c>
       <c r="R16">
         <v>-89.99999999999572</v>
@@ -12154,16 +12154,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853300863599</v>
+        <v>0.6350853300863591</v>
       </c>
       <c r="O17">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857074</v>
+        <v>0.6350852922857064</v>
       </c>
       <c r="Q17">
-        <v>60.00000078327083</v>
+        <v>60.00000078327092</v>
       </c>
       <c r="R17">
         <v>-89.99999999999572</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574051</v>
+        <v>0.6350853388574036</v>
       </c>
       <c r="O18">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442549</v>
+        <v>0.6350852874442526</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076693</v>
+        <v>60.00000083076721</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S18">
-        <v>120.0000018471874</v>
+        <v>120.0000018471873</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853427556473</v>
+        <v>0.6350853427556457</v>
       </c>
       <c r="O19">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P19">
-        <v>0.6350852852924975</v>
+        <v>0.6350852852924952</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187637</v>
+        <v>60.00000085187669</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S19">
-        <v>120.0000021412047</v>
+        <v>120.0000021412045</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793289</v>
+        <v>0.6350853456793271</v>
       </c>
       <c r="O20">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786794</v>
+        <v>0.6350852836786769</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770847</v>
+        <v>60.00000086770883</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S20">
-        <v>120.0000023617177</v>
+        <v>120.0000023617175</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538896</v>
+        <v>0.6350853466538875</v>
       </c>
       <c r="O21">
-        <v>1.100000023884845</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P21">
-        <v>0.63508528314074</v>
+        <v>0.6350852831407374</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298584</v>
+        <v>60.00000087298621</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S21">
-        <v>120.000002435222</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12613,7 +12613,7 @@
         <v>29.92212961550543</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.5246566712658</v>
@@ -12675,7 +12675,7 @@
         <v>29.92212962977439</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566822253</v>
@@ -13295,7 +13295,7 @@
         <v>29.92212962001141</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246566747267</v>
@@ -13419,7 +13419,7 @@
         <v>29.92212961700742</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S16">
         <v>149.5246566724194</v>
@@ -13481,7 +13481,7 @@
         <v>29.92212961700742</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S17">
         <v>149.5246566724194</v>
@@ -13540,7 +13540,7 @@
         <v>1.096496877724249</v>
       </c>
       <c r="Q18">
-        <v>29.92212962376642</v>
+        <v>29.92212962376641</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -13605,7 +13605,7 @@
         <v>29.9221296267704</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>149.524656679918</v>
@@ -13667,7 +13667,7 @@
         <v>29.9221296290234</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.5246566816485</v>
@@ -13729,7 +13729,7 @@
         <v>29.92212962977439</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566822253</v>
@@ -14421,7 +14421,7 @@
         <v>1.096496877823413</v>
       </c>
       <c r="Q3">
-        <v>29.922129616241</v>
+        <v>29.92212961624099</v>
       </c>
       <c r="R3">
         <v>-89.99999999999635</v>
@@ -14486,7 +14486,7 @@
         <v>29.92212963050997</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566825418</v>
@@ -14731,7 +14731,7 @@
         <v>1.09649687754894</v>
       </c>
       <c r="Q8">
-        <v>29.92212963651796</v>
+        <v>29.92212963651797</v>
       </c>
       <c r="R8">
         <v>-89.99999999999635</v>
@@ -14917,7 +14917,7 @@
         <v>1.096496877498112</v>
       </c>
       <c r="Q11">
-        <v>29.92212964027296</v>
+        <v>29.92212964027295</v>
       </c>
       <c r="R11">
         <v>-89.99999999999635</v>
@@ -14976,13 +14976,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P12">
-        <v>1.096496877792916</v>
+        <v>1.096496877792915</v>
       </c>
       <c r="Q12">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S12">
         <v>149.5246566733128</v>
@@ -15038,13 +15038,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P13">
-        <v>1.096496877792916</v>
+        <v>1.096496877792915</v>
       </c>
       <c r="Q13">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S13">
         <v>149.5246566733128</v>
@@ -15106,7 +15106,7 @@
         <v>29.92212962074699</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246566750432</v>
@@ -15230,7 +15230,7 @@
         <v>29.922129617743</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S16">
         <v>149.5246566727359</v>
@@ -15292,7 +15292,7 @@
         <v>29.922129617743</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S17">
         <v>149.5246566727359</v>
@@ -15351,7 +15351,7 @@
         <v>1.096496877711591</v>
       </c>
       <c r="Q18">
-        <v>29.92212962450199</v>
+        <v>29.92212962450198</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -15416,7 +15416,7 @@
         <v>29.92212962750598</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>149.5246566802346</v>
@@ -15540,7 +15540,7 @@
         <v>29.92212963050997</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566825418</v>
@@ -15629,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -15665,7 +15665,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -15674,7 +15674,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -15730,19 +15730,19 @@
         <v>0.5773502855857104</v>
       </c>
       <c r="O3">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027883</v>
+        <v>0.5773502543027881</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610993</v>
+        <v>60.00000076610994</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S3">
-        <v>120.0000010262632</v>
+        <v>120.0000010262631</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -15789,16 +15789,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888182</v>
+        <v>0.5773503058881819</v>
       </c>
       <c r="O4">
         <v>0.9999999999962951</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802628</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007625</v>
+        <v>60.00000027007621</v>
       </c>
       <c r="R4">
         <v>-89.99999999999592</v>
@@ -15851,22 +15851,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.577350301613978</v>
+        <v>0.5773503016139776</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P5">
-        <v>0.577350249706058</v>
+        <v>0.5773502497060575</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450432</v>
+        <v>60.00000037450437</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S5">
-        <v>120.0000025995941</v>
+        <v>120.000002599594</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -15913,22 +15913,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.577350308025285</v>
+        <v>0.5773503080252846</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673659</v>
+        <v>0.5773502478673654</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786214</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S6">
-        <v>120.0000032289265</v>
+        <v>120.0000032289264</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -15975,22 +15975,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680408</v>
+        <v>0.5773503133680401</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351224</v>
+        <v>0.5773502463351222</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732689</v>
+        <v>60.00000008732695</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999596</v>
       </c>
       <c r="S7">
-        <v>120.0000037533702</v>
+        <v>120.00000375337</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -16037,22 +16037,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365919</v>
+        <v>0.5773503144365912</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286738</v>
+        <v>0.5773502460286737</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121984</v>
+        <v>60.00000006121991</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S8">
-        <v>120.0000038582589</v>
+        <v>120.0000038582588</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -16099,22 +16099,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736942</v>
+        <v>0.5773503165736935</v>
       </c>
       <c r="O9">
-        <v>0.999999999996295</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157765</v>
+        <v>0.5773502454157763</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900577</v>
+        <v>60.00000000900584</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S9">
-        <v>120.0000040680364</v>
+        <v>120.0000040680362</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -16161,22 +16161,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107966</v>
+        <v>0.5773503187107961</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028792</v>
+        <v>0.5773502448028791</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679168</v>
+        <v>59.99999995679174</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S10">
-        <v>120.0000042778138</v>
+        <v>120.0000042778137</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -16223,22 +16223,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793477</v>
+        <v>0.5773503197793473</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964307</v>
+        <v>0.5773502444964305</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068465</v>
+        <v>59.9999999306847</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S11">
-        <v>120.0000043827026</v>
+        <v>120.0000043827024</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -16285,7 +16285,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913642</v>
+        <v>0.577350288791364</v>
       </c>
       <c r="O12">
         <v>0.9999999999962959</v>
@@ -16297,10 +16297,10 @@
         <v>60.0000006877888</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S12">
-        <v>120.0000013409294</v>
+        <v>120.0000013409293</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -16350,7 +16350,7 @@
         <v>0.5773502887913642</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P13">
         <v>0.5773502533834421</v>
@@ -16412,10 +16412,10 @@
         <v>0.5773502919970173</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640958</v>
       </c>
       <c r="Q14">
         <v>60.0000006094677</v>
@@ -16471,22 +16471,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341199</v>
+        <v>0.5773502941341196</v>
       </c>
       <c r="O15">
         <v>0.9999999999962959</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511987</v>
+        <v>0.5773502518511984</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725364</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S15">
-        <v>120.000001865373</v>
+        <v>120.0000018653729</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -16536,7 +16536,7 @@
         <v>0.5773502877228128</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P16">
         <v>0.5773502536898908</v>
@@ -16545,7 +16545,7 @@
         <v>60.00000071389584</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S16">
         <v>120.0000012360406</v>
@@ -16601,7 +16601,7 @@
         <v>0.999999999996296</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898908</v>
+        <v>0.5773502536898907</v>
       </c>
       <c r="Q17">
         <v>60.00000071389584</v>
@@ -16663,13 +16663,13 @@
         <v>0.9999999999962955</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318522</v>
+        <v>0.5773502509318523</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893252</v>
+        <v>60.0000004789325</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S18">
         <v>120.0000021800392</v>
@@ -16725,16 +16725,16 @@
         <v>0.9999999999962953</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060573</v>
+        <v>0.5773502497060575</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450439</v>
+        <v>60.00000037450437</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S19">
-        <v>120.000002599594</v>
+        <v>120.0000025995941</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196308</v>
+        <v>0.5773503048196307</v>
       </c>
       <c r="O20">
         <v>0.9999999999962951</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867112</v>
+        <v>0.5773502487867115</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618329</v>
+        <v>60.00000029618326</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S20">
-        <v>120.0000029142603</v>
+        <v>120.0000029142602</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16849,13 +16849,13 @@
         <v>0.9999999999962951</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802628</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007626</v>
+        <v>60.00000027007621</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S21">
         <v>120.000003019149</v>
@@ -16944,7 +16944,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16962,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -16980,7 +16980,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -16989,7 +16989,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -17045,19 +17045,19 @@
         <v>0.5773502855857104</v>
       </c>
       <c r="O3">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027883</v>
+        <v>0.5773502543027881</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610993</v>
+        <v>60.00000076610994</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S3">
-        <v>120.0000010262632</v>
+        <v>120.0000010262631</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -17104,16 +17104,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888182</v>
+        <v>0.5773503058881819</v>
       </c>
       <c r="O4">
         <v>0.9999999999962951</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802628</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007625</v>
+        <v>60.00000027007621</v>
       </c>
       <c r="R4">
         <v>-89.99999999999592</v>
@@ -17166,22 +17166,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.577350301613978</v>
+        <v>0.5773503016139776</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P5">
-        <v>0.577350249706058</v>
+        <v>0.5773502497060575</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450432</v>
+        <v>60.00000037450437</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S5">
-        <v>120.0000025995941</v>
+        <v>120.000002599594</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -17228,22 +17228,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.577350308025285</v>
+        <v>0.5773503080252846</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673659</v>
+        <v>0.5773502478673654</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786214</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S6">
-        <v>120.0000032289265</v>
+        <v>120.0000032289264</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -17290,22 +17290,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680408</v>
+        <v>0.5773503133680401</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351224</v>
+        <v>0.5773502463351222</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732689</v>
+        <v>60.00000008732695</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999596</v>
       </c>
       <c r="S7">
-        <v>120.0000037533702</v>
+        <v>120.00000375337</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -17352,22 +17352,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365919</v>
+        <v>0.5773503144365912</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286738</v>
+        <v>0.5773502460286737</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121984</v>
+        <v>60.00000006121991</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S8">
-        <v>120.0000038582589</v>
+        <v>120.0000038582588</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -17414,22 +17414,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736942</v>
+        <v>0.5773503165736935</v>
       </c>
       <c r="O9">
-        <v>0.999999999996295</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157765</v>
+        <v>0.5773502454157763</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900577</v>
+        <v>60.00000000900584</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S9">
-        <v>120.0000040680364</v>
+        <v>120.0000040680362</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -17476,22 +17476,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107966</v>
+        <v>0.5773503187107961</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028792</v>
+        <v>0.5773502448028791</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679168</v>
+        <v>59.99999995679174</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S10">
-        <v>120.0000042778138</v>
+        <v>120.0000042778137</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -17538,22 +17538,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793477</v>
+        <v>0.5773503197793473</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962949</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964307</v>
+        <v>0.5773502444964305</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068465</v>
+        <v>59.9999999306847</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S11">
-        <v>120.0000043827026</v>
+        <v>120.0000043827024</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -17600,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913642</v>
+        <v>0.577350288791364</v>
       </c>
       <c r="O12">
         <v>0.9999999999962959</v>
@@ -17612,10 +17612,10 @@
         <v>60.0000006877888</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S12">
-        <v>120.0000013409294</v>
+        <v>120.0000013409293</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -17665,7 +17665,7 @@
         <v>0.5773502887913642</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P13">
         <v>0.5773502533834421</v>
@@ -17727,10 +17727,10 @@
         <v>0.5773502919970173</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640958</v>
       </c>
       <c r="Q14">
         <v>60.0000006094677</v>
@@ -17786,22 +17786,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341199</v>
+        <v>0.5773502941341196</v>
       </c>
       <c r="O15">
         <v>0.9999999999962959</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511987</v>
+        <v>0.5773502518511984</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725364</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S15">
-        <v>120.000001865373</v>
+        <v>120.0000018653729</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -17851,7 +17851,7 @@
         <v>0.5773502877228128</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P16">
         <v>0.5773502536898908</v>
@@ -17860,7 +17860,7 @@
         <v>60.00000071389584</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S16">
         <v>120.0000012360406</v>
@@ -17916,7 +17916,7 @@
         <v>0.999999999996296</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898908</v>
+        <v>0.5773502536898907</v>
       </c>
       <c r="Q17">
         <v>60.00000071389584</v>
@@ -17978,13 +17978,13 @@
         <v>0.9999999999962955</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318522</v>
+        <v>0.5773502509318523</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893252</v>
+        <v>60.0000004789325</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S18">
         <v>120.0000021800392</v>
@@ -18040,16 +18040,16 @@
         <v>0.9999999999962953</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060573</v>
+        <v>0.5773502497060575</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450439</v>
+        <v>60.00000037450437</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S19">
-        <v>120.000002599594</v>
+        <v>120.0000025995941</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196308</v>
+        <v>0.5773503048196307</v>
       </c>
       <c r="O20">
         <v>0.9999999999962951</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867112</v>
+        <v>0.5773502487867115</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618329</v>
+        <v>60.00000029618326</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S20">
-        <v>120.0000029142603</v>
+        <v>120.0000029142602</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18164,13 +18164,13 @@
         <v>0.9999999999962951</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802625</v>
+        <v>0.5773502484802628</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007626</v>
+        <v>60.00000027007621</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S21">
         <v>120.000003019149</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -18543,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618045</v>
+        <v>0.9900480149618046</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
@@ -18605,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9900480150169573</v>
+        <v>0.9900480150169571</v>
       </c>
       <c r="O7">
         <v>0.9999999999994829</v>
@@ -18729,7 +18729,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480150500486</v>
+        <v>0.9900480150500488</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
@@ -18797,7 +18797,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798866566953</v>
+        <v>0.9963798866566952</v>
       </c>
       <c r="Q10">
         <v>29.91230410523937</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -19417,7 +19417,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
         <v>29.9123040934257</v>
@@ -19592,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9900480149618045</v>
+        <v>0.9900480149618046</v>
       </c>
       <c r="O6">
         <v>0.9999999999994829</v>
@@ -19920,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9900480150169573</v>
+        <v>0.9900480150169571</v>
       </c>
       <c r="O7">
         <v>0.9999999999994829</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480150500486</v>
+        <v>0.9900480150500488</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
@@ -20112,7 +20112,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798866566953</v>
+        <v>0.9963798866566952</v>
       </c>
       <c r="Q10">
         <v>29.91230410523937</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -20732,7 +20732,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
         <v>29.9123040934257</v>
@@ -20892,7 +20892,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
         <v>57.73503019620926</v>
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
         <v>333.3333522545259</v>
@@ -20916,13 +20916,13 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>0.6350853098448019</v>
@@ -20931,10 +20931,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098608015</v>
+        <v>0.6350853098608014</v>
       </c>
       <c r="Q2">
-        <v>4.228446394548947E-09</v>
+        <v>4.228435321178557E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20943,7 +20943,7 @@
         <v>-179.9999999948365</v>
       </c>
       <c r="T2">
-        <v>57.7350301918306</v>
+        <v>57.73503019183062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -20987,22 +20987,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852940976681</v>
+        <v>0.6350852940976678</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853272056293</v>
+        <v>0.6350853272056294</v>
       </c>
       <c r="Q3">
-        <v>9.908897321974448E-07</v>
+        <v>9.908898120430041E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992578329</v>
+        <v>-179.9999992578328</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -21049,22 +21049,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768194</v>
+        <v>0.6350852838768182</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853457222794</v>
+        <v>0.6350853457222805</v>
       </c>
       <c r="Q4">
-        <v>2.387471857301227E-06</v>
+        <v>2.387471920281556E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991575631</v>
+        <v>-179.9999991575629</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -21111,22 +21111,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285743</v>
+        <v>0.6350852860285739</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853418240366</v>
+        <v>0.6350853418240364</v>
       </c>
       <c r="Q5">
-        <v>2.093454441761202E-06</v>
+        <v>2.093454582132437E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991786724</v>
+        <v>-179.9999991786723</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -21173,16 +21173,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852828009368</v>
+        <v>0.6350852828009365</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853476713992</v>
+        <v>0.635085347671399</v>
       </c>
       <c r="Q6">
-        <v>2.534480347995371E-06</v>
+        <v>2.53448050426545E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21235,22 +21235,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112388</v>
+        <v>0.6350852801112385</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853525442018</v>
+        <v>0.6350853525442012</v>
       </c>
       <c r="Q7">
-        <v>2.90200190273767E-06</v>
+        <v>2.902002105054821E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999991206213</v>
+        <v>-179.9999991206212</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -21297,22 +21297,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732991</v>
+        <v>0.635085279573299</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187623</v>
+        <v>0.6350853535187616</v>
       </c>
       <c r="Q8">
-        <v>2.975506207373844E-06</v>
+        <v>2.975506442733866E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999991153439</v>
+        <v>-179.9999991153438</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -21359,16 +21359,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974198</v>
+        <v>0.6350852784974194</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853554678831</v>
+        <v>0.6350853554678827</v>
       </c>
       <c r="Q9">
-        <v>3.122514843396424E-06</v>
+        <v>3.122515039904144E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -21421,22 +21421,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215405</v>
+        <v>0.6350852774215401</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853574170041</v>
+        <v>0.6350853574170036</v>
       </c>
       <c r="Q10">
-        <v>3.269523472337161E-06</v>
+        <v>3.269523663045942E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9999990942344</v>
+        <v>-179.9999990942343</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -21483,16 +21483,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768836007</v>
+        <v>0.6350852768836004</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853583915645</v>
+        <v>0.6350853583915641</v>
       </c>
       <c r="Q11">
-        <v>3.343027784121441E-06</v>
+        <v>3.343027986390254E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -21545,22 +21545,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852924838488</v>
+        <v>0.6350852924838484</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853301293106</v>
+        <v>0.6350853301293107</v>
       </c>
       <c r="Q12">
-        <v>1.211402675068545E-06</v>
+        <v>1.211402752930066E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992420008</v>
+        <v>-179.9999992420007</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -21607,22 +21607,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852924838488</v>
+        <v>0.6350852924838483</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853301293106</v>
+        <v>0.6350853301293107</v>
       </c>
       <c r="Q13">
-        <v>1.211402637258142E-06</v>
+        <v>1.211402722864795E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9999992420008</v>
+        <v>-179.9999992420007</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -21669,22 +21669,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852908700314</v>
+        <v>0.6350852908700307</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853330529924</v>
+        <v>0.6350853330529928</v>
       </c>
       <c r="Q14">
-        <v>1.43191563590059E-06</v>
+        <v>1.431915720134122E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999992261688</v>
+        <v>-179.9999992261687</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -21731,7 +21731,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941512</v>
+        <v>0.635085289794151</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -21740,13 +21740,13 @@
         <v>0.6350853350021131</v>
       </c>
       <c r="Q15">
-        <v>1.578924232098705E-06</v>
+        <v>1.578924346222908E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.999999215614</v>
+        <v>-179.9999992156139</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -21793,7 +21793,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217886</v>
+        <v>0.6350852930217881</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -21802,7 +21802,7 @@
         <v>0.6350853291547502</v>
       </c>
       <c r="Q16">
-        <v>1.137898365848248E-06</v>
+        <v>1.137898432149738E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21855,7 +21855,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217886</v>
+        <v>0.6350852930217881</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -21864,13 +21864,13 @@
         <v>0.6350853291547502</v>
       </c>
       <c r="Q17">
-        <v>1.137898328037846E-06</v>
+        <v>1.137898413650119E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9999992472782</v>
+        <v>-179.9999992472781</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -21917,22 +21917,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803345</v>
+        <v>0.6350852881803338</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257951</v>
+        <v>0.6350853379257958</v>
       </c>
       <c r="Q18">
-        <v>1.79943725808579E-06</v>
+        <v>1.799437316376714E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.999999199782</v>
+        <v>-179.9999991997818</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -21979,22 +21979,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285772</v>
+        <v>0.6350852860285761</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853418240372</v>
+        <v>0.6350853418240384</v>
       </c>
       <c r="Q19">
-        <v>2.093454565666771E-06</v>
+        <v>2.093454617272152E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991786725</v>
+        <v>-179.9999991786724</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -22041,22 +22041,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.635085284414759</v>
+        <v>0.6350852844147579</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477189</v>
+        <v>0.63508534474772</v>
       </c>
       <c r="Q20">
-        <v>2.313967540670682E-06</v>
+        <v>2.313967605180978E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991628404</v>
+        <v>-179.9999991628403</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -22103,22 +22103,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768194</v>
+        <v>0.6350852838768183</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853457222794</v>
+        <v>0.6350853457222807</v>
       </c>
       <c r="Q21">
-        <v>2.3874718515184E-06</v>
+        <v>2.387471916023076E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991575631</v>
+        <v>-179.9999991575629</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
         <v>57.73503019620923</v>
@@ -22216,31 +22216,31 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
         <v>333.3333522545257</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350853098448019</v>
+        <v>0.6350853098448017</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -22249,7 +22249,7 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228442635118158E-09</v>
+        <v>4.228442375288927E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22258,7 +22258,7 @@
         <v>-179.9999999948365</v>
       </c>
       <c r="T2">
-        <v>57.7350301918306</v>
+        <v>57.73503019183062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -22302,22 +22302,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478038</v>
+        <v>0.6350852933478033</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.635085328031573</v>
+        <v>0.6350853280315722</v>
       </c>
       <c r="Q3">
-        <v>1.03787372739117E-06</v>
+        <v>1.037873684151321E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992227374</v>
+        <v>-179.9999992227375</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -22364,16 +22364,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.635085283126955</v>
+        <v>0.6350852831269523</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482232</v>
+        <v>0.6350853465482212</v>
       </c>
       <c r="Q4">
-        <v>2.434455870402535E-06</v>
+        <v>2.434455761647027E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -22426,22 +22426,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.63508528527871</v>
+        <v>0.6350852852787094</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853426499804</v>
+        <v>0.6350853426499792</v>
       </c>
       <c r="Q5">
-        <v>2.140438449380155E-06</v>
+        <v>2.140438454835646E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991435769</v>
+        <v>-179.999999143577</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -22488,22 +22488,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510724</v>
+        <v>0.635085282051072</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973433</v>
+        <v>0.635085348497342</v>
       </c>
       <c r="Q6">
-        <v>2.581464355263343E-06</v>
+        <v>2.581464374523854E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991119127</v>
+        <v>-179.9999991119128</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852793613745</v>
+        <v>0.635085279361374</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701457</v>
+        <v>0.6350853533701442</v>
       </c>
       <c r="Q7">
-        <v>2.94898591314466E-06</v>
+        <v>2.948985972759958E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999990855258</v>
+        <v>-179.9999990855259</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -22612,16 +22612,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234348</v>
+        <v>0.6350852788234345</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447061</v>
+        <v>0.6350853543447046</v>
       </c>
       <c r="Q8">
-        <v>3.022490203726509E-06</v>
+        <v>3.022490287211716E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -22674,22 +22674,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852777475556</v>
+        <v>0.6350852777475552</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853562938271</v>
+        <v>0.6350853562938257</v>
       </c>
       <c r="Q9">
-        <v>3.169498854117304E-06</v>
+        <v>3.169498907932904E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999990696937</v>
+        <v>-179.9999990696938</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -22736,16 +22736,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852766716761</v>
+        <v>0.6350852766716759</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853582429483</v>
+        <v>0.6350853582429467</v>
       </c>
       <c r="Q10">
-        <v>3.316507477484474E-06</v>
+        <v>3.316507525506993E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22798,16 +22798,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852761337363</v>
+        <v>0.6350852761337362</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175087</v>
+        <v>0.6350853592175071</v>
       </c>
       <c r="Q11">
-        <v>3.390011795156211E-06</v>
+        <v>3.390011843175096E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22860,22 +22860,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852917339843</v>
+        <v>0.6350852917339841</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552548</v>
+        <v>0.6350853309552538</v>
       </c>
       <c r="Q12">
-        <v>1.258386680855699E-06</v>
+        <v>1.258386610280158E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992069053</v>
+        <v>-179.9999992069054</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -22922,22 +22922,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339843</v>
+        <v>0.6350852917339841</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853309552545</v>
+        <v>0.6350853309552538</v>
       </c>
       <c r="Q13">
-        <v>1.258386658009795E-06</v>
+        <v>1.258386614756058E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9999992069053</v>
+        <v>-179.9999992069054</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201672</v>
+        <v>0.6350852901201661</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789365</v>
+        <v>0.6350853338789353</v>
       </c>
       <c r="Q14">
-        <v>1.478899650935176E-06</v>
+        <v>1.478899595322542E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -23046,22 +23046,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852890442868</v>
+        <v>0.6350852890442865</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.635085335828057</v>
+        <v>0.6350853358280562</v>
       </c>
       <c r="Q15">
-        <v>1.625908245123437E-06</v>
+        <v>1.625908215479515E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999991805185</v>
+        <v>-179.9999991805186</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -23108,22 +23108,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852922719241</v>
+        <v>0.6350852922719238</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806931</v>
       </c>
       <c r="Q16">
-        <v>1.184882371530773E-06</v>
+        <v>1.18488229517604E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992121827</v>
+        <v>-179.9999992121828</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -23170,16 +23170,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719243</v>
+        <v>0.6350852922719238</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806931</v>
       </c>
       <c r="Q17">
-        <v>1.184882348684868E-06</v>
+        <v>1.184882305434766E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852874304703</v>
+        <v>0.6350852874304684</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517392</v>
+        <v>0.6350853387517374</v>
       </c>
       <c r="Q18">
-        <v>1.846421270655837E-06</v>
+        <v>1.846421198820677E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -23294,16 +23294,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787128</v>
+        <v>0.6350852852787106</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499813</v>
+        <v>0.6350853426499792</v>
       </c>
       <c r="Q19">
-        <v>2.140438578349558E-06</v>
+        <v>2.140438485743282E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -23356,16 +23356,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852836648946</v>
+        <v>0.635085283664892</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736629</v>
+        <v>0.6350853455736608</v>
       </c>
       <c r="Q20">
-        <v>2.360951559450186E-06</v>
+        <v>2.360951448290243E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.635085283126955</v>
+        <v>0.6350852831269524</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482232</v>
+        <v>0.6350853465482212</v>
       </c>
       <c r="Q21">
-        <v>2.434455870402535E-06</v>
+        <v>2.43445575345613E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>1.096496878100584</v>
@@ -23750,7 +23750,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q5">
-        <v>29.52465667992313</v>
+        <v>29.52465667992314</v>
       </c>
       <c r="R5">
         <v>-90.55768083460144</v>
@@ -23939,7 +23939,7 @@
         <v>29.52465668684491</v>
       </c>
       <c r="R8">
-        <v>-90.5576808185627</v>
+        <v>-90.55768081856269</v>
       </c>
       <c r="S8">
         <v>149.9221296357769</v>
@@ -23992,7 +23992,7 @@
         <v>1.09649687753996</v>
       </c>
       <c r="O9">
-        <v>1.086862152117769</v>
+        <v>1.08686215211777</v>
       </c>
       <c r="P9">
         <v>1.090352557044242</v>
@@ -24116,13 +24116,13 @@
         <v>1.096496877509463</v>
       </c>
       <c r="O11">
-        <v>1.086862152100594</v>
+        <v>1.086862152100595</v>
       </c>
       <c r="P11">
         <v>1.09035255705797</v>
       </c>
       <c r="Q11">
-        <v>29.52465668972898</v>
+        <v>29.52465668972899</v>
       </c>
       <c r="R11">
         <v>-90.55768081187988</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O12">
         <v>1.08686215226662</v>
@@ -24184,7 +24184,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q12">
-        <v>29.52465667300135</v>
+        <v>29.52465667300136</v>
       </c>
       <c r="R12">
         <v>-90.55768085064017</v>
@@ -24237,7 +24237,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O13">
         <v>1.08686215226662</v>
@@ -24246,7 +24246,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q13">
-        <v>29.52465667300135</v>
+        <v>29.52465667300136</v>
       </c>
       <c r="R13">
         <v>-90.55768085064017</v>
@@ -24680,7 +24680,7 @@
         <v>1.090352556993903</v>
       </c>
       <c r="Q20">
-        <v>29.52465668165357</v>
+        <v>29.52465668165358</v>
       </c>
       <c r="R20">
         <v>-90.55768083059175</v>
@@ -24852,19 +24852,19 @@
         <v>5.123517322003456</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219823</v>
+        <v>0.01094540887219822</v>
       </c>
       <c r="I2">
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -25251,10 +25251,10 @@
         <v>1.090352557034103</v>
       </c>
       <c r="Q8">
-        <v>29.52465668716143</v>
+        <v>29.52465668716144</v>
       </c>
       <c r="R8">
-        <v>-90.55768081750686</v>
+        <v>-90.55768081750685</v>
       </c>
       <c r="S8">
         <v>149.9221296365125</v>
@@ -25378,7 +25378,7 @@
         <v>29.52465668946869</v>
       </c>
       <c r="R10">
-        <v>-90.55768081216061</v>
+        <v>-90.5576808121606</v>
       </c>
       <c r="S10">
         <v>149.9221296395165</v>
@@ -25685,7 +25685,7 @@
         <v>1.090352556947153</v>
       </c>
       <c r="Q15">
-        <v>29.52465667620195</v>
+        <v>29.52465667620196</v>
       </c>
       <c r="R15">
         <v>-90.55768084290152</v>
@@ -25809,7 +25809,7 @@
         <v>1.090352556919695</v>
       </c>
       <c r="Q17">
-        <v>29.52465667274106</v>
+        <v>29.52465667274107</v>
       </c>
       <c r="R17">
         <v>-90.55768085092089</v>
@@ -26167,19 +26167,19 @@
         <v>266.6666760320132</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.01243796466366947</v>
       </c>
       <c r="K2">
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -26194,7 +26194,7 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534686053639369E-09</v>
+        <v>4.534686092264086E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26247,16 +26247,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393528</v>
+        <v>0.5773502543393527</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594382</v>
+        <v>0.5773502855594383</v>
       </c>
       <c r="Q3">
-        <v>1.029154388094002E-06</v>
+        <v>1.02915444283242E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -26309,22 +26309,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168295</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619076</v>
+        <v>0.5773503058619077</v>
       </c>
       <c r="Q4">
-        <v>3.022040124202027E-06</v>
+        <v>3.022040273151941E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266816</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426238</v>
+        <v>0.5773502497426232</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877032</v>
       </c>
       <c r="Q5">
-        <v>2.602485413228526E-06</v>
+        <v>2.602485437383451E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222532</v>
+        <v>-179.9999996222533</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -26433,22 +26433,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039324</v>
+        <v>0.5773502479039316</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990097</v>
+        <v>0.5773503079990091</v>
       </c>
       <c r="Q6">
-        <v>3.231817800459791E-06</v>
+        <v>3.231817814960846E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788954</v>
+        <v>-179.9999997788955</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -26495,22 +26495,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.57735024637169</v>
+        <v>0.5773502463716889</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417647</v>
+        <v>0.577350313341764</v>
       </c>
       <c r="Q7">
-        <v>3.756261475267204E-06</v>
+        <v>3.756261483403275E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094305</v>
+        <v>-179.9999999094306</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26557,22 +26557,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652413</v>
+        <v>0.5773502460652401</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103158</v>
+        <v>0.5773503144103149</v>
       </c>
       <c r="Q8">
-        <v>3.86115019073975E-06</v>
+        <v>3.861150203541074E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355375</v>
+        <v>-179.9999999355377</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -26619,22 +26619,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523441</v>
+        <v>0.577350245452343</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.577350316547418</v>
+        <v>0.5773503165474173</v>
       </c>
       <c r="Q9">
-        <v>4.070927677278774E-06</v>
+        <v>4.070927679021957E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877516</v>
+        <v>-179.9999999877517</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -26681,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394471</v>
+        <v>0.577350244839446</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845201</v>
+        <v>0.5773503186845196</v>
       </c>
       <c r="Q10">
-        <v>4.280705161081672E-06</v>
+        <v>4.280705162805663E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600198</v>
+        <v>179.9999999600196</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329987</v>
+        <v>0.5773502445329974</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530713</v>
+        <v>0.5773503197530706</v>
       </c>
       <c r="Q11">
-        <v>4.385593882518282E-06</v>
+        <v>4.385593890596783E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339127</v>
+        <v>179.9999999339126</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -26805,22 +26805,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200069</v>
+        <v>0.577350253420007</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650918</v>
       </c>
       <c r="Q12">
-        <v>1.343820607469392E-06</v>
+        <v>1.343820659505159E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -26873,16 +26873,16 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650916</v>
+        <v>0.5773502887650918</v>
       </c>
       <c r="Q13">
-        <v>1.343820590095815E-06</v>
+        <v>1.343820657530658E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707444</v>
+        <v>0.5773502919707445</v>
       </c>
       <c r="Q14">
-        <v>1.658486730902359E-06</v>
+        <v>1.658486806099078E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -26991,16 +26991,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877638</v>
+        <v>0.5773502518877636</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078464</v>
+        <v>0.5773502941078462</v>
       </c>
       <c r="Q15">
-        <v>1.868264266079072E-06</v>
+        <v>1.868264303703674E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -27059,16 +27059,16 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965406</v>
       </c>
       <c r="Q16">
-        <v>1.238931887251323E-06</v>
+        <v>1.238931913849254E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992828619</v>
+        <v>-179.999999282862</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -27115,16 +27115,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264554</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965406</v>
+        <v>0.5773502876965407</v>
       </c>
       <c r="Q17">
-        <v>1.238931863516636E-06</v>
+        <v>1.238931911874753E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -27177,22 +27177,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684176</v>
+        <v>0.5773502509684181</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134995</v>
+        <v>0.5773502973134996</v>
       </c>
       <c r="Q18">
-        <v>2.182930344835941E-06</v>
+        <v>2.182930464550549E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999995178252</v>
+        <v>-179.9999995178253</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -27239,22 +27239,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426231</v>
+        <v>0.5773502497426237</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877036</v>
+        <v>0.5773503015877037</v>
       </c>
       <c r="Q19">
-        <v>2.602485241141871E-06</v>
+        <v>2.602485378872614E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222535</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -27301,7 +27301,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232773</v>
+        <v>0.5773502488232779</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -27310,13 +27310,13 @@
         <v>0.5773503047933566</v>
       </c>
       <c r="Q20">
-        <v>2.917151399513529E-06</v>
+        <v>2.917151546565085E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999997005744</v>
+        <v>-179.9999997005745</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -27363,7 +27363,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168294</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -27372,13 +27372,13 @@
         <v>0.5773503058619077</v>
       </c>
       <c r="Q21">
-        <v>3.022040124202027E-06</v>
+        <v>3.02204026488587E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266816</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -27978,19 +27978,19 @@
         <v>266.6666760320132</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.01243796466366947</v>
       </c>
       <c r="K2">
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -28005,7 +28005,7 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534686053639369E-09</v>
+        <v>4.534686092264086E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393528</v>
+        <v>0.5773502543393527</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594382</v>
+        <v>0.5773502855594383</v>
       </c>
       <c r="Q3">
-        <v>1.029154388094002E-06</v>
+        <v>1.02915444283242E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -28120,22 +28120,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168295</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619076</v>
+        <v>0.5773503058619077</v>
       </c>
       <c r="Q4">
-        <v>3.022040124202027E-06</v>
+        <v>3.022040273151941E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266816</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -28182,22 +28182,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426238</v>
+        <v>0.5773502497426232</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877032</v>
       </c>
       <c r="Q5">
-        <v>2.602485413228526E-06</v>
+        <v>2.602485437383451E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222532</v>
+        <v>-179.9999996222533</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -28244,22 +28244,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039324</v>
+        <v>0.5773502479039316</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990097</v>
+        <v>0.5773503079990091</v>
       </c>
       <c r="Q6">
-        <v>3.231817800459791E-06</v>
+        <v>3.231817814960846E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788954</v>
+        <v>-179.9999997788955</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -28306,22 +28306,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.57735024637169</v>
+        <v>0.5773502463716889</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417647</v>
+        <v>0.577350313341764</v>
       </c>
       <c r="Q7">
-        <v>3.756261475267204E-06</v>
+        <v>3.756261483403275E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094305</v>
+        <v>-179.9999999094306</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28368,22 +28368,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652413</v>
+        <v>0.5773502460652401</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773503144103158</v>
+        <v>0.5773503144103149</v>
       </c>
       <c r="Q8">
-        <v>3.86115019073975E-06</v>
+        <v>3.861150203541074E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355375</v>
+        <v>-179.9999999355377</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -28430,22 +28430,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523441</v>
+        <v>0.577350245452343</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.577350316547418</v>
+        <v>0.5773503165474173</v>
       </c>
       <c r="Q9">
-        <v>4.070927677278774E-06</v>
+        <v>4.070927679021957E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877516</v>
+        <v>-179.9999999877517</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -28492,22 +28492,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394471</v>
+        <v>0.577350244839446</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845201</v>
+        <v>0.5773503186845196</v>
       </c>
       <c r="Q10">
-        <v>4.280705161081672E-06</v>
+        <v>4.280705162805663E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600198</v>
+        <v>179.9999999600196</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -28554,22 +28554,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329987</v>
+        <v>0.5773502445329974</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530713</v>
+        <v>0.5773503197530706</v>
       </c>
       <c r="Q11">
-        <v>4.385593882518282E-06</v>
+        <v>4.385593890596783E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339127</v>
+        <v>179.9999999339126</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -28616,22 +28616,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200069</v>
+        <v>0.577350253420007</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650918</v>
       </c>
       <c r="Q12">
-        <v>1.343820607469392E-06</v>
+        <v>1.343820659505159E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -28684,16 +28684,16 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650916</v>
+        <v>0.5773502887650918</v>
       </c>
       <c r="Q13">
-        <v>1.343820590095815E-06</v>
+        <v>1.343820657530658E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.999999308969</v>
+        <v>-179.9999993089691</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -28746,10 +28746,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707444</v>
+        <v>0.5773502919707445</v>
       </c>
       <c r="Q14">
-        <v>1.658486730902359E-06</v>
+        <v>1.658486806099078E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -28802,16 +28802,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877638</v>
+        <v>0.5773502518877636</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078464</v>
+        <v>0.5773502941078462</v>
       </c>
       <c r="Q15">
-        <v>1.868264266079072E-06</v>
+        <v>1.868264303703674E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -28870,16 +28870,16 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965406</v>
       </c>
       <c r="Q16">
-        <v>1.238931887251323E-06</v>
+        <v>1.238931913849254E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992828619</v>
+        <v>-179.999999282862</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -28926,16 +28926,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264555</v>
+        <v>0.5773502537264554</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965406</v>
+        <v>0.5773502876965407</v>
       </c>
       <c r="Q17">
-        <v>1.238931863516636E-06</v>
+        <v>1.238931911874753E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28988,22 +28988,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684176</v>
+        <v>0.5773502509684181</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134995</v>
+        <v>0.5773502973134996</v>
       </c>
       <c r="Q18">
-        <v>2.182930344835941E-06</v>
+        <v>2.182930464550549E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999995178252</v>
+        <v>-179.9999995178253</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -29050,22 +29050,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426231</v>
+        <v>0.5773502497426237</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877036</v>
+        <v>0.5773503015877037</v>
       </c>
       <c r="Q19">
-        <v>2.602485241141871E-06</v>
+        <v>2.602485378872614E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222535</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -29112,7 +29112,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232773</v>
+        <v>0.5773502488232779</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -29121,13 +29121,13 @@
         <v>0.5773503047933566</v>
       </c>
       <c r="Q20">
-        <v>2.917151399513529E-06</v>
+        <v>2.917151546565085E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999997005744</v>
+        <v>-179.9999997005745</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168287</v>
+        <v>0.5773502485168294</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -29183,13 +29183,13 @@
         <v>0.5773503058619077</v>
       </c>
       <c r="Q21">
-        <v>3.022040124202027E-06</v>
+        <v>3.02204026488587E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266816</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -29293,19 +29293,19 @@
         <v>4.650135750724413</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.01243796466366947</v>
       </c>
       <c r="K2">
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -29379,7 +29379,7 @@
         <v>0.9864427565220329</v>
       </c>
       <c r="P3">
-        <v>0.9900480147309935</v>
+        <v>0.9900480147309934</v>
       </c>
       <c r="Q3">
         <v>29.4607573010759</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397397</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -29621,13 +29621,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986365</v>
+        <v>0.9963798866986364</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
       </c>
       <c r="P7">
-        <v>0.9900480150177869</v>
+        <v>0.9900480150177868</v>
       </c>
       <c r="Q7">
         <v>29.46075732700074</v>
@@ -29683,7 +29683,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798866904159</v>
+        <v>0.9963798866904158</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
@@ -29751,7 +29751,7 @@
         <v>0.9864427565983545</v>
       </c>
       <c r="P9">
-        <v>0.9900480150508787</v>
+        <v>0.9900480150508785</v>
       </c>
       <c r="Q9">
         <v>29.46075732999207</v>
@@ -29869,7 +29869,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9963798866493128</v>
+        <v>0.9963798866493127</v>
       </c>
       <c r="O11">
         <v>0.9864427566062497</v>
@@ -29934,10 +29934,10 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q12">
         <v>29.46075730406723</v>
@@ -29946,7 +29946,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S12">
-        <v>149.912304079789</v>
+        <v>149.9123040797891</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -29993,13 +29993,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9963798868877105</v>
+        <v>0.9963798868877107</v>
       </c>
       <c r="O13">
         <v>0.9864427565299283</v>
       </c>
       <c r="P13">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q13">
         <v>29.46075730406723</v>
@@ -30008,7 +30008,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S13">
-        <v>149.912304079789</v>
+        <v>149.9123040797891</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -30303,7 +30303,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219458</v>
+        <v>0.9963798868219457</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -30315,7 +30315,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.63269606571221</v>
+        <v>-90.6326960657122</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -30368,7 +30368,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
@@ -30427,7 +30427,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644014</v>
+        <v>0.9963798867644015</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
@@ -30439,7 +30439,7 @@
         <v>29.46075731902386</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224075</v>
+        <v>-90.63269605224076</v>
       </c>
       <c r="S20">
         <v>149.9123040934202</v>
@@ -30608,19 +30608,19 @@
         <v>4.650135750724413</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.01243796466366947</v>
       </c>
       <c r="K2">
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911623</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -30694,7 +30694,7 @@
         <v>0.9864427565220329</v>
       </c>
       <c r="P3">
-        <v>0.9900480147309935</v>
+        <v>0.9900480147309934</v>
       </c>
       <c r="Q3">
         <v>29.4607573010759</v>
@@ -30874,7 +30874,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397397</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -30936,13 +30936,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986365</v>
+        <v>0.9963798866986364</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
       </c>
       <c r="P7">
-        <v>0.9900480150177869</v>
+        <v>0.9900480150177868</v>
       </c>
       <c r="Q7">
         <v>29.46075732700074</v>
@@ -30998,7 +30998,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798866904159</v>
+        <v>0.9963798866904158</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
@@ -31066,7 +31066,7 @@
         <v>0.9864427565983545</v>
       </c>
       <c r="P9">
-        <v>0.9900480150508787</v>
+        <v>0.9900480150508785</v>
       </c>
       <c r="Q9">
         <v>29.46075732999207</v>
@@ -31184,7 +31184,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9963798866493128</v>
+        <v>0.9963798866493127</v>
       </c>
       <c r="O11">
         <v>0.9864427566062497</v>
@@ -31249,10 +31249,10 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q12">
         <v>29.46075730406723</v>
@@ -31261,7 +31261,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S12">
-        <v>149.912304079789</v>
+        <v>149.9123040797891</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -31308,13 +31308,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9963798868877105</v>
+        <v>0.9963798868877107</v>
       </c>
       <c r="O13">
         <v>0.9864427565299283</v>
       </c>
       <c r="P13">
-        <v>0.990048014764085</v>
+        <v>0.9900480147640851</v>
       </c>
       <c r="Q13">
         <v>29.46075730406723</v>
@@ -31323,7 +31323,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S13">
-        <v>149.912304079789</v>
+        <v>149.9123040797891</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -31618,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219458</v>
+        <v>0.9963798868219457</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -31630,7 +31630,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.63269606571221</v>
+        <v>-90.6326960657122</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -31683,7 +31683,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
@@ -31742,7 +31742,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644014</v>
+        <v>0.9963798867644015</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
@@ -31754,7 +31754,7 @@
         <v>29.46075731902386</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224075</v>
+        <v>-90.63269605224076</v>
       </c>
       <c r="S20">
         <v>149.9123040934202</v>
@@ -34409,13 +34409,13 @@
         <v>0.01094540889714034</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
         <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>0.9526279647803686</v>
@@ -34427,7 +34427,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.694474697036798E-11</v>
+        <v>-8.69406265071991E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34483,16 +34483,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293721</v>
+        <v>0.9526279813293727</v>
       </c>
       <c r="Q3">
-        <v>8.313211763937887E-08</v>
+        <v>8.31321846700553E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999168589</v>
+        <v>179.999999916859</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -34536,22 +34536,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656302</v>
+        <v>0.9526279338656303</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.952627995698121</v>
+        <v>0.9526279956981225</v>
       </c>
       <c r="Q4">
-        <v>5.152361397134443E-07</v>
+        <v>5.152361902813793E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994847549</v>
+        <v>179.999999484755</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -34601,10 +34601,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627992673121</v>
+        <v>0.9526279926731215</v>
       </c>
       <c r="Q5">
-        <v>4.242667625962477E-07</v>
+        <v>4.242668806401764E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -34654,16 +34654,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279323531288</v>
+        <v>0.9526279323531289</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279972106207</v>
+        <v>0.9526279972106211</v>
       </c>
       <c r="Q6">
-        <v>5.607206374823895E-07</v>
+        <v>5.607207536535404E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -34713,22 +34713,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718784</v>
+        <v>0.9526279285718785</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918705</v>
+        <v>0.9526280009918707</v>
       </c>
       <c r="Q7">
-        <v>6.744321692522938E-07</v>
+        <v>6.744323108599519E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999993255587</v>
+        <v>179.9999993255588</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156281</v>
+        <v>0.9526279278156284</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481205</v>
+        <v>0.9526280017481206</v>
       </c>
       <c r="Q8">
-        <v>6.971744703295571E-07</v>
+        <v>6.971746245421165E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999993028164</v>
+        <v>179.9999993028165</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -34831,22 +34831,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279263031278</v>
+        <v>0.952627926303128</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280032606201</v>
+        <v>0.9526280032606206</v>
       </c>
       <c r="Q9">
-        <v>7.426590961172729E-07</v>
+        <v>7.426592377095879E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34896,16 +34896,16 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731202</v>
+        <v>0.9526280047731205</v>
       </c>
       <c r="Q10">
-        <v>7.88143710059368E-07</v>
+        <v>7.881438516423767E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,16 +34949,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343773</v>
+        <v>0.9526279240343777</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280055293703</v>
+        <v>0.9526280055293707</v>
       </c>
       <c r="Q11">
-        <v>8.108860183946999E-07</v>
+        <v>8.108861561192219E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -35008,16 +35008,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656307</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981224</v>
+        <v>0.9526279835981227</v>
       </c>
       <c r="Q12">
-        <v>1.513590267718505E-07</v>
+        <v>1.513591006990945E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -35073,10 +35073,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981224</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q13">
-        <v>1.513590271311658E-07</v>
+        <v>1.51359094149267E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -35132,16 +35132,16 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668718</v>
+        <v>0.9526279858668725</v>
       </c>
       <c r="Q14">
-        <v>2.195860097671116E-07</v>
+        <v>2.195860758163114E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.999999780405</v>
+        <v>179.9999997804051</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279421843802</v>
+        <v>0.9526279421843804</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279873793716</v>
+        <v>0.952627987379372</v>
       </c>
       <c r="Q15">
-        <v>2.650705898138828E-07</v>
+        <v>2.650706863987138E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -35244,16 +35244,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218808</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418723</v>
+        <v>0.9526279828418727</v>
       </c>
       <c r="Q16">
-        <v>1.286167194836587E-07</v>
+        <v>1.286167934141716E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -35309,10 +35309,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418723</v>
+        <v>0.9526279828418728</v>
       </c>
       <c r="Q17">
-        <v>1.286167159877562E-07</v>
+        <v>1.286167830091264E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -35368,16 +35368,16 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279896481213</v>
+        <v>0.9526279896481225</v>
       </c>
       <c r="Q18">
-        <v>3.332976061467322E-07</v>
+        <v>3.332976545028612E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996666934</v>
+        <v>179.9999996666935</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -35427,16 +35427,16 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731211</v>
+        <v>0.9526279926731225</v>
       </c>
       <c r="Q19">
-        <v>4.242668789590299E-07</v>
+        <v>4.242669255018673E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999995757241</v>
+        <v>179.9999995757242</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.952627994941871</v>
+        <v>0.9526279949418726</v>
       </c>
       <c r="Q20">
-        <v>4.924938336180649E-07</v>
+        <v>4.924938844428193E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995074972</v>
+        <v>179.9999995074973</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -35539,22 +35539,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656302</v>
+        <v>0.9526279338656303</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.952627995698121</v>
+        <v>0.9526279956981225</v>
       </c>
       <c r="Q21">
-        <v>5.152361397134443E-07</v>
+        <v>5.152361943901475E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994847549</v>
+        <v>179.999999484755</v>
       </c>
     </row>
   </sheetData>
